--- a/user-data/oda-BG/oda-BG.xlsx
+++ b/user-data/oda-BG/oda-BG.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">Description: Gross official development assistance from Bulgaria</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>

--- a/user-data/oda-BG/oda-BG.xlsx
+++ b/user-data/oda-BG/oda-BG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">id-to</t>
   </si>
@@ -25,6 +25,90 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
     <t xml:space="preserve">Name: oda-BG</t>
@@ -394,22 +478,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +501,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -425,42 +509,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -492,88 +576,200 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D3" t="n">
+        <v>170000</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D4" t="n">
+        <v>120000</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D5" t="n">
+        <v>140000</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D8" t="n">
+        <v>110000</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D9" t="n">
+        <v>310000</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D13" t="n">
+        <v>110000</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D14" t="n">
+        <v>120000</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/oda-BG/oda-BG.xlsx
+++ b/user-data/oda-BG/oda-BG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">id-to</t>
   </si>
@@ -27,13 +27,97 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name: oda-BG</t>
   </si>
   <si>
     <t xml:space="preserve">Description: Gross official development assistance from Bulgaria</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>
@@ -394,22 +478,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +501,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -425,42 +509,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -492,88 +576,200 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D3" t="n">
+        <v>170000</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D4" t="n">
+        <v>120000</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D5" t="n">
+        <v>140000</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D8" t="n">
+        <v>110000</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D9" t="n">
+        <v>310000</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D13" t="n">
+        <v>110000</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D14" t="n">
+        <v>120000</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
